--- a/王语晗/tp_shop_wrong_login.xlsx
+++ b/王语晗/tp_shop_wrong_login.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,13 +74,33 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>账号格式不匹配!</t>
+  </si>
+  <si>
+    <t>密码错误!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名不能为空!</t>
+  </si>
+  <si>
+    <t>密码不能为空!</t>
+  </si>
+  <si>
+    <t>验证码不能为空!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +115,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,11 +145,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,18 +436,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +458,11 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -439,8 +472,11 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -450,8 +486,11 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -461,8 +500,11 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -472,8 +514,11 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -483,8 +528,11 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -494,8 +542,11 @@
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -505,8 +556,11 @@
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -516,8 +570,11 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -526,6 +583,9 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
